--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/47_Kayseri_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/47_Kayseri_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B360FDDF-6AFB-4E8B-BFFA-51FB52AC1830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4197628C-F237-491B-9875-A264A1CF26CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{2602D306-AD91-4A0E-B97F-19D2D4842CFC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{F2D4453E-90A2-4FA0-970F-72E8E8C8CD79}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -970,13 +970,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{783BAB1E-CF41-4E0B-8598-0BAAE3C0FCFB}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{17B19FE7-CF52-464E-ABFC-7CC8BA866569}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{A8BE19F2-6D3E-49F7-B137-53AB8E634FD2}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{90B0DB7E-B1F1-49F3-8525-6668803B6FDA}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{FACC9710-BA43-4407-BDDC-D503848FE7C5}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{DDC00FA6-E62A-48CC-9A06-72F6CA283E0E}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{E920D8EB-32FA-4122-B7FC-3147E279C285}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{684811CE-C582-44A2-9CC4-1A8FA02ABE15}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{E086064E-F6A9-49F0-BCAC-34212E5346E5}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{1A6CAE1A-3200-4D62-9434-03BCC022C2F5}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{BA589B1F-5F62-4DD4-BDEC-34FBBA89F2CF}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{CA7EAABE-AEB6-4A96-B439-9B8A8531722C}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{606FBFBF-598E-4532-B16E-13B0D5B9A352}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{A74E5A0F-F1DD-40A3-9BFC-5181D2ACE64E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1346,7 +1346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438EB214-7E9A-44DB-910E-BD48624BF587}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26AA467-6055-4F39-8AFC-777A14FEFC8A}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2626,18 +2626,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{96BD060D-60B9-4749-AD4D-EAC95647F310}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F43C4CE3-AE4A-479C-A2CE-7F8BF4538322}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B82E7107-8D6F-491B-BF6E-71ADB9772B34}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C8C8E92C-7DC9-453F-942A-4410A9DD3BD5}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{6091671F-C774-408F-9512-68EE03668FC6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3F1E2891-7149-4409-B0D1-1B5CFAA1FEBF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7780A60E-7BF3-4531-A324-2E6B4D751EAF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0F47D34A-D761-4515-8E24-7735FA218DC1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B787EC02-D1B6-4108-B8F2-DA1C655CA687}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C7B86E87-FF17-49AD-A77A-D3C208D14735}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BD1CFB97-637A-43BD-AAAC-B7D6BF627571}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4AC6A7C2-DBB3-4B0C-A974-D1F9BF8B43FD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{553DB0A0-F949-40F1-ACA0-A76F17422C8C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{302DFD79-ECCE-4A19-AA38-F3764D7EF063}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{89F39BF4-8177-4B08-8E3B-095139C28A45}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{35BCDD3C-6D0C-4D68-86C6-054847E34D9F}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{3DC99576-0D0B-4EC9-B256-C7416C9A2011}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3E17C474-1EE5-406E-B843-E6E0BC1CE943}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{700BBF9F-C136-4FC7-AF26-453F536159E7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6D2FE06E-70B3-470F-9B40-C28118D7E7CC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{37810C13-0182-443C-B9DB-91903020DEAC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C2C749BC-5F59-48AA-96E0-9478C496C0CF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3B16D427-9CBE-411C-BE3C-01330B93A605}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F294B355-1052-43FE-AEFA-BCAB4AB2B6BF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2650,7 +2650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF01B778-8289-42E1-A07E-17D20FC6FC81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9EEC81-BCB0-49EF-84F9-90B7AEDA248D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3915,18 +3915,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{46BC9B8E-8311-4419-A16A-7E03D60B5C9F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F74B693C-D147-4C9C-9A85-A6721E700B24}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{55185BDA-7E5E-4287-B123-63D43D6CE7CE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AE03839C-D582-45AE-AE16-7BCDA0776619}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{DFCEF91E-48B9-470C-85C5-CBA1FD937793}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C86FDB25-3881-4451-9E1D-BB56E6B006FC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DE4B1532-0FAB-40A5-BB85-E0EDD749CA9D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E169FB49-B29A-48D3-A8CD-5B2BBE7F4BE2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1683C7E3-7486-42D5-ABC6-B1B193FC98E4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{00A268DD-A9CC-4418-91EF-3299EA1ED762}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{30B46BD4-6A4B-4D49-BC36-5A22D796B66E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{583AA7E5-073A-4618-A296-808BEBD4A5D4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D0169942-5861-4310-B0BF-AB9AF1CB9222}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{857AB59C-DA59-4D56-BB82-4DC6C6A37BEE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EF98037F-85D7-43BA-82B1-DC46A90E71FD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BF5E410D-8BD6-417A-A550-DE80EF817DEF}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{5169C511-A0F1-4DFD-803B-50B76329686A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3B3F3B9F-707C-450D-A390-CE0EBA5A4466}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{050EFF6F-D563-4518-8740-FA8C3942AB52}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6ED304E6-CFE9-4699-BF37-87FCB554FD0A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0EF523F9-EAF0-4A11-85E0-143DFD20BD04}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{10DC511B-F7D9-406C-AAE0-823FBB101D53}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5E6E30DD-BE1C-4E7C-A3D6-A8E5B4D22E5C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E420C792-B2BA-40F4-B627-1DC0C384815A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3939,7 +3939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831C2225-D39C-43B6-BAEE-98F612CD4442}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD215EA-4EF7-4601-BD24-A0BA4FE35FEC}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5204,18 +5204,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A8B77EF4-F91C-4742-AF5D-2637A0BF311D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{65FC82F2-17E6-442B-9BAF-FD7BC57AA835}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E5A6DE21-CA46-4E6E-9E6D-44D91429B1F9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F0D01C48-F300-43DC-9086-7E3B6C55B6F0}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{1E1D554A-D6C0-4977-933C-70626CF45F44}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B92F55F7-9179-4E2E-ADF7-507DA6EC0B9C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A1F2DCB1-8573-41CE-A329-A8F810D64068}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{523D659E-CC40-45B6-9989-0130895F151D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{54FE4C15-C6B3-4EF6-8FEE-ADFC1E374B11}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3175ADA5-3F1C-40D4-88F9-09D5A1B89061}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4E7598CB-A0EC-48AD-8AEB-99EB948CA3AB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AABEC72F-092F-4242-BD9E-3C4B357397CF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EF517466-685E-4B33-9DA9-F9E2614F78E9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{75AEB030-5203-4C50-B877-69EA6704272E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0AB842A0-D191-4A7E-B55C-09B83EBE8F34}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9B8B2705-116C-4040-9E42-4223CF3C2B51}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{0299A572-81DC-4FC2-AD67-7D4CB7A27BA7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C74968BF-CACF-4F1F-96CA-BC365A6ACCE6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CA7CD834-DDEA-4EF6-9A7F-0F9939A5AE95}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{39E05D03-9DD1-4446-8AF5-8D2F1C689F9B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{663F4EBD-8CBC-4CE2-B505-E8B7BC44D7D3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{679B9FC1-641F-4786-ADB1-A25DD1C4D460}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{556F5C7F-C2CC-4105-B6FF-5B55072B0ED4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A677D94A-666A-4B32-BF76-2E979E31AC36}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5228,7 +5228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC925F3-E295-4D70-8C5A-AEB7BC4EC468}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA2B1C8-278A-4162-AB82-512986DCDE8A}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6480,18 +6480,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1C5718F4-47A8-4C40-A7BB-8E92F69A61ED}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E4220DCD-AA75-4E97-BD8E-BF1A2EF3AE42}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{296E8455-0E7D-4ECB-86ED-81524FE7C48F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{17FEAAAF-5BF0-4C9B-A4AE-C37CED701D30}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{BC5B51B9-5060-4543-B77D-0CD628C4FF23}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{287AB72C-9189-47BE-91E8-F092C697D992}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6B3FB862-169F-4A6E-B982-4A911A7C935F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C5F0AF60-0BBA-4B03-BF07-6F14CCC806CD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5C11F643-0098-487B-A563-23439EC024F0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{825B7954-3DBB-4959-BFA5-743849F3C6E7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6CA8E86D-7103-49B0-AB10-4A0D58349FC5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A79FF962-F717-4EF0-9FB8-1A2C085D48D6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9EF0A76C-785A-4A19-AE7F-78ABE958881D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F58EB939-8C09-4971-B3E7-14767112C12C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E9D40689-47A2-425A-929A-AADE21885AB0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D0D5177C-95E1-4DD2-A132-71C78F7D7411}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{840BE508-9625-4A0D-BB54-46DE6F605DFD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F27CD154-0354-4E0E-8361-601D2EC37A68}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6B0AD6FA-98E8-4699-8199-CB487F7B5D51}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3636AF98-776E-4B75-B7BE-6C2CBBF00636}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{72A0D9E2-98E8-4101-A089-6305314063D7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E2317E22-4C6F-4707-8BA1-54B59F3F4A1E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D9DB842D-0253-49E6-A551-292B5E579F4B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D6A0B846-3FF2-4C01-B9CF-55F815D9321D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6504,7 +6504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E3E859-A9C7-4A3B-B204-F84798D2C0CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6F3763-0127-4700-B12A-B7A6B4453460}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7781,18 +7781,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A802FFCA-3C92-45A9-B506-C21191A297F3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BBC7A113-6826-4770-B4AE-E860F065E457}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{23E2BE00-6614-4BAF-988A-25CECBF79EA3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{56ECC42F-F2C7-4C7D-8CA1-6714BA0CD613}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{1423F45A-AAD6-485C-AE92-842EE5A93680}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4E37DC3A-D01C-48F7-9331-3A75579B0CA5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1F386EAF-5C86-42E5-9D69-A411A0BF30C9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E3A08A10-718C-449C-A189-995FD5DC2E13}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3CEE236D-5711-400B-88DF-66BC9CCBA74E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A50E2333-9C0B-4AEC-B119-B9FE7D5884FD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DB673FA0-B1F0-4147-9B93-35734A39EFC2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7DA0C352-4E0C-409B-BFBD-DB52BC474AE5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AF0F2A47-8881-4AEF-A0CE-1851AEB3C3CE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{409D02F3-810B-4CC9-9CAE-EB2409A84275}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D13B590E-67CF-4F60-B04D-4C2651BC5E52}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3C580C8F-B9A4-4FCC-A8C9-6DAA0354BC2B}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{9F3FB19F-F239-46F6-999F-BF13FBEB3785}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{29DAFF68-2759-405C-AFA0-00443116217D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9BB50875-895A-4682-8CF1-A60FED9D0F20}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C51D2F7D-8697-42DF-9559-4A88E6ABC25C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{90BD8FA3-8C8B-4740-96B2-5EF09B1C742D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{43898DFC-01A5-4DCA-8998-B26805EBFDD8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4DEA6200-F8DA-4E96-A913-753409524DA2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9C76A463-BB42-48BD-82CA-4B9E2FFAE1A4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7805,7 +7805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A76832A-8723-420A-82A5-A1EF49E834E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83F8681-3DAD-4CC1-88D2-02C97286D249}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9078,18 +9078,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DF8F89D4-A40E-4FD3-8F57-19145B0A3611}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{15E8FFB2-DA0C-4B2B-A18D-67FC7254856C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7CB7001B-6C46-4787-994B-D0F1220FBAFA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{87720245-1352-43DE-B306-11059F65B0D7}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{BE9E1862-0F3D-4231-A7C3-8BBE02B9CE3C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D9F56E24-C050-42D1-8846-D111ADE5949A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F3D4296C-FD74-4F86-A28F-E60BC5153F86}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F3ABD581-DC3D-44AD-A63E-86841F002010}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E3864048-AAD9-46AC-8F80-1AC19C2CA2C5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7346DEE8-520A-483F-84DF-D993FD393768}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E96E327C-FD93-4FA5-9B9F-8E14DBF0F3D3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9F32048C-BD65-4D99-BC0A-797D367B5FE5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{32AC4FEA-5AE1-4621-97D1-486E243D96EE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{71EA9A2B-954E-4F6F-940E-5DF9D6716C90}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FF93CAA6-C051-498C-8A95-5A92AD27CBC3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D9FC0220-96DA-4B80-B718-8E827CF02E26}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{758F4309-C5AE-4BB6-ADE5-C62A99A41173}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D87B7B28-A44C-4CAD-8785-FAC07F7E0795}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2DA4ECBB-819B-412B-8AC5-DCACE2D3578F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{82E50D57-CA8A-414E-814C-0208D7266F08}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D644982E-3DD8-494B-9E48-9073583FD302}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F7AA2DD6-3224-499C-84AB-F9C050E81CFA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{25E5C811-1671-4FCE-8FB3-2B37934766F2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BDD6710D-0971-4E9E-9157-75558F7CA1B0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9102,7 +9102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8E2626-0854-4F21-8BAE-1180E9EF1D30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01193D9F-6009-4B17-969B-EF37C442D3F5}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10375,18 +10375,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B54826D3-A8EA-4086-9B89-C4E54C6AEE20}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{87CDDA83-33FE-4BEC-9894-DB3BD5579B0F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B28ED648-BD9A-4466-9465-6A4E126A862A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C845CF5E-598B-411F-9A31-B354E885DDE5}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{736D9B9C-3C9C-4EAA-9968-7E9843CD7A73}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0A572D82-E457-49AC-8805-78923F982128}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{73ECE816-9992-4554-BD62-D165F67B932A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{63016B3C-5D17-411C-9A8A-618477152CF6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D78776D4-29C1-417D-A165-90199D088907}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FFA96A16-3FCB-4DFC-AD29-30E835BF22C8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3D372B53-8C74-463A-AD5A-DAE891B9BE9A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ADA8925D-757E-4C7E-B5A8-0A9A2B7CCE92}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ED828AE2-50BC-4436-ABD4-871E5D8ECC61}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{78F69D26-40CD-4816-84F4-EBB2D3A9A642}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D31630E6-9F45-4724-ABEE-DF948DA47AC0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{44871169-505A-46A5-BCD6-47A9FDBE6895}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{669D254A-561D-4178-81ED-6B5AEECC5F44}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{418B92DF-25DB-4037-9472-D8AC97CCE8DF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D1560EF5-6DEF-43EF-A757-E558F2EEA1B7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B2A306C3-45E3-4EB4-BD59-1C049877C98F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4597E9E3-F64D-4980-965B-F81E2C8CB7B3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F32E9B88-3442-40EB-A8CE-910D17F03E37}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{670497C0-A612-4559-B95A-FF0D691EA792}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{478ADD47-14A4-4F3D-8410-266AC65E0EF2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10399,7 +10399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8AD1552-3285-4FDF-A725-18462C917C63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2051753E-E797-4283-9039-2A6BE9A58A43}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11672,18 +11672,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CDE1899E-8E17-43F1-8081-550FE40AAE33}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B4962BEC-CF77-40B5-BFF3-409BD88C4C23}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{22E69534-62DF-4545-B9CF-AA09534B3809}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F9963EB1-D086-48BA-91F1-1845123296AB}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{0DCBC95A-C76E-4B42-865B-ACB4AC210929}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1E379A5E-998A-4CF3-B75F-121E02248FAD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0A8261DA-5ACB-48E6-9A8F-9552F388E025}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CE5AA2D3-0A32-49E0-B937-012F82D79EF1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{807CC939-AB90-44F1-826F-A27031D5FC6D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7C22B92F-F879-4EA0-80DE-B74333D6DB4E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D7270F87-F29D-40E9-A911-133B2DCAA924}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8A43CFC4-6F90-48B0-BD62-6B3B34B7C28A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6E8B1868-BC73-486E-B16A-6743D754A04F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1DB87856-51B6-4290-83C7-8A1705344050}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BAA8B12F-BC71-4057-98B4-F463DD838D68}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FBB0EB0F-2C6F-483A-8B0B-E74CD14836FD}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{01D3ABE8-96C9-4315-AAB1-3E951249F62F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5AFFEAD0-93E2-4047-89EA-9F51EF80BEB4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{824013E1-EC83-4477-8F1E-AA8915F397CD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{483A990A-F528-4D7B-9464-7ACFBD6B92C9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{835B29C1-BD9F-4F5E-BE6B-2F6686D0BB8F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{249DB096-A8DB-4CA5-8BBD-E28F7CD70D69}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DA21312C-7D6A-4CC7-8EEA-7F63DFDBC9BC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EAEB5113-381B-4086-ACEA-E281BA4007AC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11696,7 +11696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4030D59A-D7AE-4C66-B163-EF3BC6DC7405}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB65034-AC2F-4CF9-9F56-77F674151FBD}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12969,18 +12969,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DBC29DAA-218E-4E69-9300-3C3CA3666474}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{47F0EA64-13D2-4A12-8377-F2E26207B1B9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6DA674D8-E777-4ECB-B237-1322395666A8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{511F283A-67ED-4B17-A4E5-6657DBF5A8F3}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{76AF9934-EBD7-4B0D-9E2A-90BA028A42FF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{983FDE14-7C07-40E6-902A-2FAD698B2D67}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6598BF04-E3E8-4BB0-B22D-74FD71953201}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B57CC4F4-9AA2-4B5C-A466-E4F42D85BF83}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DBA8FED0-FAEB-4289-BEBF-61971E403222}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8E0634D6-B038-4F67-B87A-CC5B4F849692}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4FD2A689-CFE9-47E1-A3A2-76C251CD9955}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7CBB561D-1C1F-44C1-A547-55DCB1A3AAAE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{140A579D-5C76-4D68-AE29-2252E07BB02D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A07CA8EA-84DD-4294-86D5-10B071A8FFE1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D8C8285E-775B-4CBB-BE8A-F738E8BBF913}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E5AB5A61-9F7C-4020-B75D-93BB6B52CA2B}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{B8996FFC-168B-4C64-9FD1-2F887E60A689}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ACE297C5-6434-4769-9A6B-DBE53115EC01}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9FFC90F1-81E6-428D-87F1-179F4AA46B5A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7738F4A8-7E87-4ABA-B19C-8752423C3CDE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A6C38EC2-7638-4B5A-AD02-95BB14ABD797}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7C4914C3-0B3D-48B8-8B2E-FE3158ABCB2F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E01F8210-AD0D-47CA-B7EA-5E651762E93D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DF24325A-4E7F-45DF-B728-F2E1F72D2D77}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12993,7 +12993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4439EF1-EE43-4AB3-B7FD-F0E7CDC9FFF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1C22F1-2465-4A04-A050-4D63D0095E5D}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14266,18 +14266,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B9EDA6F2-8412-41C0-A4A6-058BE20E34F7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8BECB231-1693-4F24-BC6C-6D5961DC4B0D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{30CDAC2C-092B-4766-8750-1BDC661234A9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9BFA309D-C209-485E-AA08-6D335296FD78}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{1D81A542-C5C6-4D75-AAD2-2A71B7248DCF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4D6F9D0C-917D-418F-ACF9-15A35D5C9E59}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E6747E34-4B7E-4F3D-A11A-8E13EB95C135}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{021BA111-2C27-4086-96E3-4858AE759698}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{68622488-FEB5-468C-8283-82B0A2EF214C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{83B0F872-84E2-4436-B264-0338BF8CC831}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BA49B0E6-3B6C-41EE-AAB3-4CA72E909013}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6AD5C8E7-92AC-407B-8795-7530A6FFC2D1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E20F6679-5478-4BC0-8AE0-D8DDAF6C4ADB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B3DCA0B5-CCCB-4AF7-8961-7F541EA23A80}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{304DA0C0-0539-4A9F-88E3-C81E3319CFDD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{99D9BD93-4AF9-4D1B-AE43-B9D469923AC0}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{68827B1A-000B-420A-987D-264F959849DB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{070D0BC1-BFD6-4599-A515-C1885A2A438A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1E8384A7-AD14-432E-A1ED-FDB338884C33}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5272BC1C-C930-4EAD-BED3-589B8A640ADB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8268BD9F-010E-4879-8F7F-39100EB558EA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4E171717-B70E-4C4D-8FAA-584FAC8711C7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1CFB719F-0130-43C6-86F6-41771863E9DB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A419BA60-BF79-4EC6-BD92-5033B2B717AD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14290,7 +14290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E174F4-C1B7-44B7-BC02-714CDF3FAA4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CAB4B02-9064-436C-811C-365430090B2B}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15563,18 +15563,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CBA5A54A-8803-48FF-A1CA-DE5BC5B5B6FE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CAE323B0-4D65-4DE4-B6B4-499AA5BE34F9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{ABB40BD7-71FB-43ED-8972-A711BC6B63D2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{05A1EBA0-8DD7-47E7-B8AC-A38ADB5DF5FC}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{7DEBB3EF-420A-48BC-BD40-44E3FE6F78EA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{017924D3-5161-4C26-A8BE-31F2516B2D63}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8F17A128-B589-4CF0-90EB-810BA104741C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{86F579A3-2554-49CE-A2D0-5FC633A7E788}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{387C03FF-E7A8-4B6F-90F9-B8237FFE6351}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ACA61205-333F-473F-A6BC-24C3F4578389}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6C31B457-688A-45A3-9F59-DDD733D1F8ED}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0BAA4851-004B-48E4-AFE5-0794B6B871BB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E8BE13B8-C9DB-4CCE-8C18-81BB75CE15CC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FBE3670D-7911-49D1-A643-7A20F23E126F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F36CFC60-5BCE-40B4-846E-CE853CE51D44}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4D87B9C0-F806-4CF2-A147-B08F5577B76B}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{650CBB72-A523-4BB6-A29D-F3FAD3BB6E6D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D9704666-AA96-45A0-8C25-E068E90C582A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C468E7DA-55FF-4C35-BFC6-AA22F50E67EB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B8532E68-88B0-4DEA-B79F-D5BA60CD23C2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5CCB90BA-2126-4BAC-BFDE-F4EB2801C267}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BFEE1207-678F-47B3-A4F8-BAEC7698DFCE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C86F85A6-A369-4C35-A5C4-F07DC16DCE61}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{74B37680-3817-4F5F-9702-0388AD1FD141}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15587,7 +15587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D604B6E0-AF84-4B80-8D67-EEF40E7F3FC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89947719-0F06-43DE-A326-AA6F6CBAC536}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16860,18 +16860,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EE35BDAD-FB5B-462E-952E-09A72EE3D32C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AF49C41D-919D-48D6-AD10-F1BC89E94084}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{ACCA0316-02DA-4630-B27A-BE4FDAAD5283}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{088BAA6D-2468-4C31-9D25-4D6C2E2F42C2}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{407404A3-F6CD-4A29-B951-9BAB44CEAEAB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C5326701-A17A-4AD2-9F79-60BD4139B813}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9C1333F6-FB67-4FFE-8454-C1D1EB17E12F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3299C2E7-AF77-4656-A75F-DE1496133E27}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{26A20667-4301-4D48-AE2F-CCB3CBFF234A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0B38D5B8-2E86-41AA-990F-612CBFA9F913}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7583769E-4985-4ED4-9EB4-A6FA28EC7190}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4C561610-D3C6-417A-BB7C-969FDDFFE36C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{97068C4D-DCFC-4D23-BA78-7D3198674CFC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{41429867-E608-478E-B840-BF882CE9A91C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{52E72B32-4B2F-40C9-BC1C-92374E145914}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A1F71E81-D996-4D35-8333-A913AA5AC126}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{7E92F335-5729-4E8C-8CC5-61AC0688E47D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{83AC7A07-6A26-42F6-B493-BA5932F57950}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A5B25048-7E4E-4BE5-A09A-22DAB5D51830}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{76EC8A31-1D69-409B-8F63-4EA38BBD4A52}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1E96AEBF-CF80-4275-B75C-2AD396A14CE3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ACAECFF0-9FB7-43A1-8F39-B760219B1FD1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D48CC1CB-E8CA-4153-911D-B330E0848E68}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B9E76E72-76D9-40D0-BEED-407B4061B281}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
